--- a/day1/IPClab.xlsx
+++ b/day1/IPClab.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Organized\projects2\caws2020\day1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A37C5C7-36A8-4DF4-AE1C-F8182AD8BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD6A573-D158-43A5-BEA8-F38DF04B43D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4995" windowWidth="16440" windowHeight="28590" xr2:uid="{A8589651-BE6D-40DD-ACA3-E86744BFBF50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A8589651-BE6D-40DD-ACA3-E86744BFBF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3Cs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>4K</t>
   </si>
@@ -88,6 +89,63 @@
   </si>
   <si>
     <t>With stride prefetcher</t>
+  </si>
+  <si>
+    <t>High (More capacity)</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Higher the cache size, larger portion of main memory can be cached so reduced cap. Miss</t>
+  </si>
+  <si>
+    <t>Reduced conflicts with significantly larger caches</t>
+  </si>
+  <si>
+    <t>No effect</t>
+  </si>
+  <si>
+    <t>Low (Less latency)</t>
+  </si>
+  <si>
+    <t>Cache Size</t>
+  </si>
+  <si>
+    <t>High (n way)</t>
+  </si>
+  <si>
+    <t>Reduces with n-way because in a set it can map to any way</t>
+  </si>
+  <si>
+    <t>Low (Fully associative)</t>
+  </si>
+  <si>
+    <t>Associativity</t>
+  </si>
+  <si>
+    <t>High (cache size)</t>
+  </si>
+  <si>
+    <t>Cap. Miss should reduce with larger lines because we can contain more in each tag,index combination</t>
+  </si>
+  <si>
+    <t>Reduces with larger lines because more likelihood of finding in line for a fixed set/way</t>
+  </si>
+  <si>
+    <t>Low (1B)</t>
+  </si>
+  <si>
+    <t>Line Size</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
   </si>
 </sst>
 </file>
@@ -111,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -172,26 +236,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE06F2-6A98-4BB4-BE20-7F256A2B852A}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -522,11 +661,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -536,18 +675,18 @@
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -727,4 +866,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C23950-E91C-490C-A308-3B21271AC364}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="43.85546875" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E2:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>